--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -55,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,8 +115,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,40 +255,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -55,7 +55,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,12 +114,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,45 +245,45 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">dmrec</t>
   </si>
@@ -28,19 +28,55 @@
     <t xml:space="preserve">file</t>
   </si>
   <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resource_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Object: Some Screenshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/spar/mediatype/application/xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/dc/dcmitype/Collection</t>
+  </si>
+  <si>
     <t xml:space="preserve">EX_COLL_123_01_recto.png|EX_COLL_123_01_verso.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Complex Object Item: Two-Sided Screenshot Postcard, If You Will, Number One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.org/dc/dcmitype/StillImage</t>
+  </si>
+  <si>
     <t xml:space="preserve">EX_COLL_123_02_recto.png|EX_COLL_123_02_verso.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Complex Object Item: Two-Sided Screenshot Postcard, If You Will, Number Two</t>
+  </si>
+  <si>
     <t xml:space="preserve">EX_COLL_123_03_recto.png|EX_COLL_123_03_verso.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Complex Object Item: Two-Sided Screenshot Postcard, If You Will, Number Three</t>
+  </si>
+  <si>
     <t xml:space="preserve">EX_COLL_123_04.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Complex Object Item: Screenshot Number Four</t>
+  </si>
+  <si>
     <t xml:space="preserve">EX_COLL_123_05.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Object Item: Screenshot Number Five</t>
   </si>
 </sst>
 </file>
@@ -55,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,8 +151,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,49 +287,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="67.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>4</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -160,7 +160,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,16 +290,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="67.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
